--- a/PeerJ-LS2022/Stats_cleaned.xlsx
+++ b/PeerJ-LS2022/Stats_cleaned.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t xml:space="preserve">Start_time</t>
   </si>
@@ -86,217 +86,256 @@
     <t xml:space="preserve">Role_06</t>
   </si>
   <si>
+    <t xml:space="preserve">2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a6f549daaa81b1766cf6b9d2d937eb87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vita07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7f7c551bd2eb65706412e0fa410942ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mald10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1f60ca86bccf1ae6ae035891ac67f05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrad04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5b9df45fb681116b931d8cacc90369db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fedp04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da46b5520d3738be9cafae18f72e8ebb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fisd04</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b948c5e1f9fcd1193900146358467e08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muzm02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58a485a102d1a6ca6f537adea667e76b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trad04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d469da0a9f49ee514844f384f474ff3f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doha05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6d7167b3ac8c82eb7f135be33b782c3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utea00</t>
+    <t xml:space="preserve">8ab40361deb41e351e4fd753ce1f5363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hula04</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">3d7191ea3527ac14352054ff50529024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoja00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eb9a376b7a93954c6b6a2f7cff0e41f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanm32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1cbaf545197ffbd5a82297693c48f061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mulj07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16c3ffcb40042e56a70320540d917647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kand03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ee99f7c2e71a2a6fd362f0fd033ea9a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feda07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125ba35d29dbd3ad377ce5547b6f0109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">morv03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f5b1146ddd25eb01c03b031b6ade4a37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kubd06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5fe8d6aa758c687863adcb966a99c3cd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vejm04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e09a40a0e2f0c650d38a66595a045a0f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvep00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63dbaa2b91d86ec8b0869367e78709bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scht09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a715461cd1df80efd8cbd9c4ec0c5591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kopl11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3b552a973de486f794afd5918744dc3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otoj00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aef7c8eaec30e506644cbcc1e3701184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topa00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">658d810c8b284470f2a24456079f9ca0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">staj19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">523d0901f8d570cb685dccea8bed4a82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zabv03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8ac0ecf636a66cd948875c532e67132a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strr07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e26323e9415e3ed5c3acb45803a32a88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ploa00</t>
+    <t xml:space="preserve">35d2615cb7024cb9f87a5604b7e33e36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">korn03</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">b5a8a9580c5c9b6179f56969623365ea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lasj06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606e743b7f8fee2dedb98f5bf28dc0ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mamj01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6df76f83f9784bf35ebb6beb30270ae2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boxm00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">891d69c98b42f93ac678217911daf093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">podm10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b08dc1a8b4f7051c4a9a249ac830ec98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruzj11</t>
+    <t xml:space="preserve">cca43c2425dd490dfc22c7c8a3491d76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tynk00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b060cb5c81fecc0a873ea839755f30bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vana23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286d6f32b76f620e7b56362644ad6e6d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvoj29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1e04a7f9432c20c5a0c863fd49f63d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luut03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7fb4f62be2cd5564521a2b5e185374f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feja02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c9f0abde198ba86ed252be26376f064b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivaa15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9201389e36ced06881e91efdffb7dc65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bubm02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cb98a6c0108bfb411a5831afc9d94044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klam09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5b3560a9a7386c960db7e2dc304f6118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leer01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1063c2f072a6068f9c3a91118ee60f6c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">augt00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8b0617fb589c6bbe2488e84debb93034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wole00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32abcef1b70c24b00e11f2fca9775ad0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roe11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f034c1b7e712c0ecf3f69f8d46a87c5b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaj17</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">8fff1f533e44710bdd2795544b588ee1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zedj00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefer not to say</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5</t>
+    <t xml:space="preserve">67b3bcbfdcad21c75614437a8f433a6f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bary01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1e20084cf34f035b1109fad55f15f87e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trep01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa7f8ddd4ddc75be70287d7fc65b4338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kalp08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b21970b833ee78dca788aead7ad6edc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kusm02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01ea4b84e7844e3ac1d313dc0fde86dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoft03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33e0d4675fa6a986996515458765c470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sina07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f17fb952084c6c228816c1cfe9950e81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tary02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4d613064ea8ed4b98bd5b1d893a1878e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neca02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30620f6460589dd7b3ae947937663933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nguq07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1d0a3da7e5e52d7ff2fbc2da81cce2c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maka13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b46696291040c51bc08bf3443369341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kara11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334d880833d20fbd5d74f3e0546d5a99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majd00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">049b090db38656875e77af7c7a4b7acd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hesj01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50fab8dec1eb670755df9daa53fe9120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tria03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad842ae7d19fb67e017705e0bb7d09f6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proe11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d3404b4468bae89cffa15a304a07e066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marp30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb4dbcaee34c183f0656d59ba5462921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orn03 </t>
   </si>
 </sst>
 </file>
@@ -710,10 +749,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B2" t="n">
-        <v>44652.4518981481</v>
+        <v>44848.2419212963</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -728,66 +767,66 @@
         <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
+        <v>18</v>
+      </c>
+      <c r="N2" t="n">
         <v>21</v>
       </c>
-      <c r="N2" t="n">
-        <v>17</v>
-      </c>
       <c r="O2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B3" t="n">
-        <v>44652.4521296296</v>
+        <v>44848.2421759259</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -802,1073 +841,1073 @@
         <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P3" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="R3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B4" t="n">
-        <v>44652.4522337963</v>
+        <v>44848.2424537037</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
-        <v>6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8</v>
-      </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M4" t="n">
         <v>21</v>
       </c>
       <c r="N4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="R4" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B5" t="n">
-        <v>44652.4522569444</v>
+        <v>44848.2424537037</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="M5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="R5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B6" t="n">
-        <v>44652.4523032407</v>
+        <v>44848.2425462963</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P6" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Q6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R6" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B7" t="n">
-        <v>44652.4523958333</v>
+        <v>44848.2426967593</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="R7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B8" t="n">
-        <v>44652.4527546296</v>
+        <v>44848.242962963</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G8" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Q8" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="R8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B9" t="n">
-        <v>44652.4528240741</v>
+        <v>44848.242974537</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G9" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N9" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O9" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P9" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="Q9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B10" t="n">
-        <v>44652.4528240741</v>
+        <v>44848.2429976852</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O10" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="P10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q10" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B11" t="n">
-        <v>44652.4528587963</v>
+        <v>44848.2430208333</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G11" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="R11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B12" t="n">
-        <v>44652.4528819444</v>
+        <v>44848.2431481481</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G12" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="n">
-        <v>8</v>
-      </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
+        <v>16</v>
+      </c>
+      <c r="P12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>16</v>
+      </c>
+      <c r="R12" t="n">
         <v>17</v>
       </c>
-      <c r="P12" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>20</v>
-      </c>
-      <c r="R12" t="n">
-        <v>18</v>
-      </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B13" t="n">
-        <v>44652.4529282407</v>
+        <v>44848.2431597222</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G13" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="R13" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B14" t="n">
-        <v>44652.453287037</v>
+        <v>44848.2432986111</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G14" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N14" t="n">
+        <v>23</v>
+      </c>
+      <c r="O14" t="n">
         <v>21</v>
       </c>
-      <c r="O14" t="n">
-        <v>20</v>
-      </c>
       <c r="P14" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q14" t="n">
         <v>19</v>
       </c>
       <c r="R14" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B15" t="n">
-        <v>44652.4536342593</v>
+        <v>44848.2433217593</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L15" t="n">
         <v>4</v>
       </c>
-      <c r="J15" t="n">
-        <v>8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8</v>
-      </c>
-      <c r="L15" t="n">
-        <v>9</v>
-      </c>
       <c r="M15" t="n">
+        <v>19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>19</v>
+      </c>
+      <c r="O15" t="n">
+        <v>22</v>
+      </c>
+      <c r="P15" t="n">
         <v>20</v>
       </c>
-      <c r="N15" t="n">
-        <v>17</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
+        <v>22</v>
+      </c>
+      <c r="R15" t="n">
         <v>18</v>
       </c>
-      <c r="P15" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>19</v>
-      </c>
-      <c r="R15" t="n">
-        <v>20</v>
-      </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B16" t="n">
-        <v>44652.4630787037</v>
+        <v>44848.243599537</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P16" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q16" t="n">
         <v>19</v>
       </c>
-      <c r="Q16" t="n">
-        <v>23</v>
-      </c>
       <c r="R16" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B17" t="n">
-        <v>44652.5259375</v>
+        <v>44848.2452430556</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
+        <v>21</v>
+      </c>
+      <c r="N17" t="n">
+        <v>17</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15</v>
+      </c>
+      <c r="P17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="n">
         <v>13</v>
-      </c>
-      <c r="N17" t="n">
-        <v>14</v>
-      </c>
-      <c r="O17" t="n">
-        <v>14</v>
-      </c>
-      <c r="P17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>14</v>
       </c>
       <c r="R17" t="n">
         <v>14</v>
@@ -1894,490 +1933,490 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B18" t="n">
-        <v>44652.5260300926</v>
+        <v>44848.3156597222</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G18" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>16</v>
+      </c>
+      <c r="P18" t="n">
         <v>20</v>
       </c>
-      <c r="O18" t="n">
-        <v>23</v>
-      </c>
-      <c r="P18" t="n">
-        <v>25</v>
-      </c>
       <c r="Q18" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="R18" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B19" t="n">
-        <v>44652.5261111111</v>
+        <v>44848.3156944444</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G19" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
+        <v>20</v>
+      </c>
+      <c r="N19" t="n">
+        <v>18</v>
+      </c>
+      <c r="O19" t="n">
+        <v>19</v>
+      </c>
+      <c r="P19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>20</v>
+      </c>
+      <c r="R19" t="n">
         <v>17</v>
       </c>
-      <c r="N19" t="n">
-        <v>19</v>
-      </c>
-      <c r="O19" t="n">
-        <v>17</v>
-      </c>
-      <c r="P19" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>14</v>
-      </c>
-      <c r="R19" t="n">
-        <v>13</v>
-      </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B20" t="n">
-        <v>44652.526400463</v>
+        <v>44848.3157291667</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G20" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N20" t="n">
+        <v>14</v>
+      </c>
+      <c r="O20" t="n">
+        <v>13</v>
+      </c>
+      <c r="P20" t="n">
         <v>16</v>
       </c>
-      <c r="O20" t="n">
-        <v>18</v>
-      </c>
-      <c r="P20" t="n">
-        <v>18</v>
-      </c>
       <c r="Q20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B21" t="n">
-        <v>44652.5265393518</v>
+        <v>44848.3158101852</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G21" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
         <v>4</v>
       </c>
-      <c r="K21" t="n">
-        <v>6</v>
-      </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>23</v>
       </c>
       <c r="N21" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O21" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P21" t="n">
         <v>16</v>
       </c>
       <c r="Q21" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R21" t="n">
         <v>22</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B22" t="n">
-        <v>44652.5265509259</v>
+        <v>44848.3158449074</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G22" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>20</v>
+      </c>
+      <c r="R22" t="n">
         <v>18</v>
       </c>
-      <c r="Q22" t="n">
-        <v>22</v>
-      </c>
-      <c r="R22" t="n">
-        <v>19</v>
-      </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B23" t="n">
-        <v>44652.5265856481</v>
+        <v>44848.3158449074</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G23" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
         <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
         <v>14</v>
       </c>
       <c r="P23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q23" t="n">
+        <v>16</v>
+      </c>
+      <c r="R23" t="n">
         <v>14</v>
       </c>
-      <c r="R23" t="n">
-        <v>13</v>
-      </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B24" t="n">
-        <v>44652.5266666667</v>
+        <v>44848.3158564815</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G24" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O24" t="n">
         <v>17</v>
@@ -2386,36 +2425,36 @@
         <v>14</v>
       </c>
       <c r="Q24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B25" t="n">
-        <v>44652.5267361111</v>
+        <v>44848.3158796296</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2424,442 +2463,442 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G25" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M25" t="n">
+        <v>13</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="n">
         <v>16</v>
-      </c>
-      <c r="N25" t="n">
-        <v>15</v>
-      </c>
-      <c r="O25" t="n">
-        <v>11</v>
       </c>
       <c r="P25" t="n">
         <v>12</v>
       </c>
       <c r="Q25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R25" t="n">
         <v>12</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B26" t="n">
-        <v>44652.5272800926</v>
+        <v>44848.3158912037</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G26" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O26" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P26" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q26" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="R26" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44652</v>
+        <v>44848</v>
       </c>
       <c r="B27" t="n">
-        <v>44652.5281712963</v>
+        <v>44848.3158912037</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G27" t="n">
-        <v>-3652</v>
+        <v>-3624</v>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M27" t="n">
+        <v>21</v>
+      </c>
+      <c r="N27" t="n">
+        <v>20</v>
+      </c>
+      <c r="O27" t="n">
+        <v>26</v>
+      </c>
+      <c r="P27" t="n">
         <v>19</v>
       </c>
-      <c r="N27" t="n">
-        <v>17</v>
-      </c>
-      <c r="O27" t="n">
-        <v>21</v>
-      </c>
-      <c r="P27" t="n">
-        <v>22</v>
-      </c>
       <c r="Q27" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R27" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44659</v>
+        <v>44848</v>
       </c>
       <c r="B28" t="n">
-        <v>44659.4502893519</v>
+        <v>44848.3158912037</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="G28" t="n">
-        <v>-3651</v>
+        <v>-3624</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M28" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N28" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="O28" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q28" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="R28" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44659</v>
+        <v>44848</v>
       </c>
       <c r="B29" t="n">
-        <v>44659.450775463</v>
+        <v>44848.3158912037</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="G29" t="n">
-        <v>-3651</v>
+        <v>-3624</v>
       </c>
       <c r="H29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I29" t="n">
         <v>4</v>
       </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="M29" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N29" t="n">
+        <v>16</v>
+      </c>
+      <c r="O29" t="n">
+        <v>25</v>
+      </c>
+      <c r="P29" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>22</v>
+      </c>
+      <c r="R29" t="n">
         <v>21</v>
       </c>
-      <c r="O29" t="n">
-        <v>14</v>
-      </c>
-      <c r="P29" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>19</v>
-      </c>
-      <c r="R29" t="n">
-        <v>19</v>
-      </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44659</v>
+        <v>44848</v>
       </c>
       <c r="B30" t="n">
-        <v>44659.4508796296</v>
+        <v>44848.3159027778</v>
       </c>
       <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-3624</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>22</v>
+      </c>
+      <c r="N30" t="n">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-3651</v>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>10</v>
-      </c>
-      <c r="N30" t="n">
-        <v>19</v>
-      </c>
       <c r="O30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P30" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="n">
+        <v>22</v>
+      </c>
+      <c r="R30" t="n">
         <v>24</v>
       </c>
-      <c r="R30" t="n">
-        <v>23</v>
-      </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44659</v>
+        <v>44848</v>
       </c>
       <c r="B31" t="n">
-        <v>44659.4508912037</v>
+        <v>44848.3159143519</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -2868,801 +2907,801 @@
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="G31" t="n">
-        <v>-3651</v>
+        <v>-3624</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L31" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O31" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="P31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q31" t="n">
+        <v>22</v>
+      </c>
+      <c r="R31" t="n">
         <v>19</v>
       </c>
-      <c r="R31" t="n">
-        <v>20</v>
-      </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44659</v>
+        <v>44848</v>
       </c>
       <c r="B32" t="n">
-        <v>44659.4509259259</v>
+        <v>44848.3159490741</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G32" t="n">
-        <v>-3651</v>
+        <v>-3624</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K32" t="n">
         <v>5</v>
       </c>
-      <c r="J32" t="n">
-        <v>5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>7</v>
-      </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="O32" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P32" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R32" t="n">
         <v>20</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44659</v>
+        <v>44848</v>
       </c>
       <c r="B33" t="n">
-        <v>44659.4514236111</v>
+        <v>44848.3159953704</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="G33" t="n">
-        <v>-3651</v>
+        <v>-3624</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L33" t="n">
         <v>5</v>
       </c>
-      <c r="L33" t="n">
-        <v>6</v>
-      </c>
       <c r="M33" t="n">
+        <v>19</v>
+      </c>
+      <c r="N33" t="n">
+        <v>21</v>
+      </c>
+      <c r="O33" t="n">
+        <v>21</v>
+      </c>
+      <c r="P33" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q33" t="n">
         <v>18</v>
       </c>
-      <c r="N33" t="n">
-        <v>18</v>
-      </c>
-      <c r="O33" t="n">
-        <v>20</v>
-      </c>
-      <c r="P33" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>15</v>
-      </c>
       <c r="R33" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44659</v>
+        <v>44848</v>
       </c>
       <c r="B34" t="n">
-        <v>44659.4514583333</v>
+        <v>44848.3163194444</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="G34" t="n">
-        <v>-3651</v>
+        <v>-3624</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="K34" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N34" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O34" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q34" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="R34" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B35" t="n">
-        <v>44659.4516666667</v>
+        <v>44876.2816203704</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G35" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="K35" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="M35" t="n">
         <v>24</v>
       </c>
       <c r="N35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O35" t="n">
         <v>22</v>
       </c>
       <c r="P35" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q35" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R35" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B36" t="n">
-        <v>44659.4517592593</v>
+        <v>44876.2817939815</v>
       </c>
       <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-3620</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>26</v>
+      </c>
+      <c r="N36" t="n">
+        <v>25</v>
+      </c>
+      <c r="O36" t="n">
+        <v>26</v>
+      </c>
+      <c r="P36" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>27</v>
+      </c>
+      <c r="R36" t="n">
         <v>28</v>
       </c>
-      <c r="D36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-3651</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4</v>
-      </c>
-      <c r="L36" t="n">
-        <v>6</v>
-      </c>
-      <c r="M36" t="n">
-        <v>19</v>
-      </c>
-      <c r="N36" t="n">
-        <v>17</v>
-      </c>
-      <c r="O36" t="n">
-        <v>15</v>
-      </c>
-      <c r="P36" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>14</v>
-      </c>
-      <c r="R36" t="n">
-        <v>17</v>
-      </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B37" t="n">
-        <v>44659.4517824074</v>
+        <v>44876.2822569444</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G37" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N37" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O37" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P37" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R37" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B38" t="n">
-        <v>44659.4517824074</v>
+        <v>44876.2824652778</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G38" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N38" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O38" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P38" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R38" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B39" t="n">
-        <v>44659.4519675926</v>
+        <v>44876.2825231481</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G39" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H39" t="n">
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K39" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="L39" t="n">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="M39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O39" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P39" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R39" t="n">
         <v>20</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B40" t="n">
-        <v>44659.4521180556</v>
+        <v>44876.2826041667</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G40" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
+        <v>25</v>
+      </c>
+      <c r="O40" t="n">
+        <v>25</v>
+      </c>
+      <c r="P40" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q40" t="n">
         <v>18</v>
       </c>
-      <c r="O40" t="n">
-        <v>19</v>
-      </c>
-      <c r="P40" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>20</v>
-      </c>
       <c r="R40" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B41" t="n">
-        <v>44659.4523842593</v>
+        <v>44876.2827893518</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G41" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
         <v>3</v>
       </c>
       <c r="M41" t="n">
+        <v>22</v>
+      </c>
+      <c r="N41" t="n">
+        <v>21</v>
+      </c>
+      <c r="O41" t="n">
         <v>18</v>
       </c>
-      <c r="N41" t="n">
-        <v>16</v>
-      </c>
-      <c r="O41" t="n">
-        <v>14</v>
-      </c>
       <c r="P41" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q41" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="R41" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T41" t="n">
         <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X41" t="n">
         <v>1</v>
@@ -3670,345 +3709,345 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B42" t="n">
-        <v>44659.4524305556</v>
+        <v>44876.2838657407</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G42" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H42" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="M42" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N42" t="n">
+        <v>16</v>
+      </c>
+      <c r="O42" t="n">
+        <v>22</v>
+      </c>
+      <c r="P42" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>28</v>
+      </c>
+      <c r="R42" t="n">
         <v>19</v>
       </c>
-      <c r="O42" t="n">
-        <v>17</v>
-      </c>
-      <c r="P42" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>19</v>
-      </c>
-      <c r="R42" t="n">
-        <v>20</v>
-      </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B43" t="n">
-        <v>44659.4524305556</v>
+        <v>44876.2838657407</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G43" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="L43" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N43" t="n">
         <v>18</v>
       </c>
       <c r="O43" t="n">
+        <v>23</v>
+      </c>
+      <c r="P43" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q43" t="n">
         <v>18</v>
       </c>
-      <c r="P43" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>20</v>
-      </c>
       <c r="R43" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B44" t="n">
-        <v>44659.5270717593</v>
+        <v>44876.2838888889</v>
       </c>
       <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-3620</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>16</v>
+      </c>
+      <c r="N44" t="n">
         <v>28</v>
       </c>
-      <c r="D44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F44" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-3651</v>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>6</v>
-      </c>
-      <c r="K44" t="n">
-        <v>7</v>
-      </c>
-      <c r="L44" t="n">
-        <v>6</v>
-      </c>
-      <c r="M44" t="n">
-        <v>22</v>
-      </c>
-      <c r="N44" t="n">
-        <v>20</v>
-      </c>
       <c r="O44" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P44" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R44" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B45" t="n">
-        <v>44659.5271296296</v>
+        <v>44876.2839699074</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G45" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M45" t="n">
         <v>21</v>
       </c>
       <c r="N45" t="n">
+        <v>23</v>
+      </c>
+      <c r="O45" t="n">
+        <v>23</v>
+      </c>
+      <c r="P45" t="n">
         <v>24</v>
       </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
         <v>24</v>
-      </c>
-      <c r="P45" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>25</v>
       </c>
       <c r="R45" t="n">
         <v>21</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B46" t="n">
-        <v>44659.5272569444</v>
+        <v>44876.2840046296</v>
       </c>
       <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-3620</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>19</v>
+      </c>
+      <c r="N46" t="n">
+        <v>21</v>
+      </c>
+      <c r="O46" t="n">
         <v>24</v>
-      </c>
-      <c r="D46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" t="s">
-        <v>75</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-3651</v>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>7</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4</v>
-      </c>
-      <c r="M46" t="n">
-        <v>18</v>
-      </c>
-      <c r="N46" t="n">
-        <v>22</v>
-      </c>
-      <c r="O46" t="n">
-        <v>20</v>
       </c>
       <c r="P46" t="n">
         <v>21</v>
@@ -4017,181 +4056,181 @@
         <v>23</v>
       </c>
       <c r="R46" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B47" t="n">
-        <v>44659.5273032407</v>
+        <v>44876.2840393518</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G47" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="M47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O47" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P47" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q47" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="R47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B48" t="n">
-        <v>44659.5273726852</v>
+        <v>44876.2841319444</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G48" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H48" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
         <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
+        <v>20</v>
+      </c>
+      <c r="N48" t="n">
+        <v>13</v>
+      </c>
+      <c r="O48" t="n">
+        <v>20</v>
+      </c>
+      <c r="P48" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>23</v>
+      </c>
+      <c r="R48" t="n">
         <v>19</v>
       </c>
-      <c r="N48" t="n">
-        <v>23</v>
-      </c>
-      <c r="O48" t="n">
-        <v>18</v>
-      </c>
-      <c r="P48" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>19</v>
-      </c>
-      <c r="R48" t="n">
-        <v>23</v>
-      </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B49" t="n">
-        <v>44659.5274537037</v>
+        <v>44876.3571064815</v>
       </c>
       <c r="C49" t="s">
         <v>24</v>
@@ -4200,268 +4239,268 @@
         <v>25</v>
       </c>
       <c r="E49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
         <v>72</v>
       </c>
-      <c r="F49" t="s">
-        <v>73</v>
-      </c>
       <c r="G49" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="K49" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M49" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N49" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O49" t="n">
         <v>19</v>
       </c>
       <c r="P49" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R49" t="n">
         <v>18</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B50" t="n">
-        <v>44659.5275462963</v>
+        <v>44876.3572222222</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G50" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="M50" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N50" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O50" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q50" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="R50" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B51" t="n">
-        <v>44659.5278009259</v>
+        <v>44876.3581365741</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
         <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G51" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="M51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N51" t="n">
         <v>17</v>
       </c>
       <c r="O51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P51" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q51" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="R51" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B52" t="n">
-        <v>44659.5284722222</v>
+        <v>44876.3583680556</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G52" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
       </c>
       <c r="J52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L52" t="n">
         <v>5</v>
       </c>
-      <c r="K52" t="n">
-        <v>6</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4</v>
-      </c>
       <c r="M52" t="n">
+        <v>14</v>
+      </c>
+      <c r="N52" t="n">
         <v>21</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
+        <v>16</v>
+      </c>
+      <c r="P52" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q52" t="n">
         <v>22</v>
       </c>
-      <c r="O52" t="n">
-        <v>21</v>
-      </c>
-      <c r="P52" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>17</v>
-      </c>
       <c r="R52" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4484,795 +4523,795 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B53" t="n">
-        <v>44659.5296296296</v>
+        <v>44876.3584606481</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
         <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H53" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N53" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O53" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q53" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R53" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44659</v>
+        <v>44876</v>
       </c>
       <c r="B54" t="n">
-        <v>44659.5347569444</v>
+        <v>44876.3585532407</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
         <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G54" t="n">
-        <v>-3651</v>
+        <v>-3620</v>
       </c>
       <c r="H54" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L54" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N54" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O54" t="n">
         <v>19</v>
       </c>
       <c r="P54" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q54" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R54" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44694</v>
+        <v>44876</v>
       </c>
       <c r="B55" t="n">
-        <v>44694.4500347222</v>
+        <v>44876.3585763889</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="G55" t="n">
-        <v>-3646</v>
+        <v>-3620</v>
       </c>
       <c r="H55" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="M55" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N55" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O55" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P55" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q55" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R55" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44694</v>
+        <v>44876</v>
       </c>
       <c r="B56" t="n">
-        <v>44694.4501041667</v>
+        <v>44876.358599537</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
         <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G56" t="n">
-        <v>-3646</v>
+        <v>-3620</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
         <v>4</v>
       </c>
-      <c r="K56" t="n">
-        <v>5</v>
-      </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N56" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O56" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P56" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q56" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R56" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44694</v>
+        <v>44876</v>
       </c>
       <c r="B57" t="n">
-        <v>44694.450150463</v>
+        <v>44876.3586921296</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="G57" t="n">
-        <v>-3646</v>
+        <v>-3620</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M57" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N57" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O57" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P57" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q57" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="R57" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44694</v>
+        <v>44876</v>
       </c>
       <c r="B58" t="n">
-        <v>44694.450162037</v>
+        <v>44876.3588194444</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G58" t="n">
-        <v>-3646</v>
+        <v>-3620</v>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J58" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="L58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N58" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O58" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P58" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R58" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44694</v>
+        <v>44876</v>
       </c>
       <c r="B59" t="n">
-        <v>44694.4501851852</v>
+        <v>44876.3590277778</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="G59" t="n">
-        <v>-3646</v>
+        <v>-3620</v>
       </c>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J59" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="K59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
+        <v>20</v>
+      </c>
+      <c r="N59" t="n">
+        <v>20</v>
+      </c>
+      <c r="O59" t="n">
         <v>19</v>
       </c>
-      <c r="N59" t="n">
-        <v>18</v>
-      </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>22</v>
       </c>
-      <c r="P59" t="n">
-        <v>28</v>
-      </c>
       <c r="Q59" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="R59" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44694</v>
+        <v>44876</v>
       </c>
       <c r="B60" t="n">
-        <v>44694.4505787037</v>
+        <v>44876.3591203704</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="G60" t="n">
-        <v>-3646</v>
+        <v>-3620</v>
       </c>
       <c r="H60" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="K60" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="L60" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M60" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O60" t="n">
         <v>20</v>
       </c>
       <c r="P60" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q60" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R60" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B61" t="n">
-        <v>44694.4506828704</v>
+        <v>44890.2145833333</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F61" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="G61" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L61" t="n">
         <v>5</v>
       </c>
-      <c r="L61" t="n">
-        <v>6</v>
-      </c>
       <c r="M61" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N61" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="O61" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P61" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q61" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R61" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B62" t="n">
-        <v>44694.4506944444</v>
+        <v>44890.2146296296</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="G62" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L62" t="n">
         <v>4</v>
       </c>
-      <c r="I62" t="n">
-        <v>5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6</v>
-      </c>
       <c r="M62" t="n">
+        <v>19</v>
+      </c>
+      <c r="N62" t="n">
+        <v>19</v>
+      </c>
+      <c r="O62" t="n">
         <v>17</v>
       </c>
-      <c r="N62" t="n">
-        <v>22</v>
-      </c>
-      <c r="O62" t="n">
-        <v>20</v>
-      </c>
       <c r="P62" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q62" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="R62" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B63" t="n">
-        <v>44694.4507060185</v>
+        <v>44890.2146527778</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G63" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H63" t="n">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="I63" t="n">
         <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="K63" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="L63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>19</v>
       </c>
       <c r="N63" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O63" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P63" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q63" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R63" t="n">
         <v>21</v>
@@ -5298,40 +5337,40 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B64" t="n">
-        <v>44694.4507407407</v>
+        <v>44890.2146759259</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="G64" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H64" t="n">
         <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L64" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="M64" t="n">
         <v>22</v>
@@ -5340,164 +5379,164 @@
         <v>23</v>
       </c>
       <c r="O64" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P64" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q64" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R64" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B65" t="n">
-        <v>44694.4507407407</v>
+        <v>44890.2146759259</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G65" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="J65" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L65" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="M65" t="n">
+        <v>16</v>
+      </c>
+      <c r="N65" t="n">
+        <v>23</v>
+      </c>
+      <c r="O65" t="n">
+        <v>14</v>
+      </c>
+      <c r="P65" t="n">
         <v>22</v>
       </c>
-      <c r="N65" t="n">
-        <v>19</v>
-      </c>
-      <c r="O65" t="n">
-        <v>20</v>
-      </c>
-      <c r="P65" t="n">
-        <v>20</v>
-      </c>
       <c r="Q65" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R65" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B66" t="n">
-        <v>44694.4507523148</v>
+        <v>44890.2146875</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="G66" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H66" t="n">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N66" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O66" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P66" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q66" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R66" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S66" t="n">
         <v>3</v>
@@ -5520,58 +5559,58 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B67" t="n">
-        <v>44694.4508101852</v>
+        <v>44890.2146990741</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="G67" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J67" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L67" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="M67" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N67" t="n">
+        <v>18</v>
+      </c>
+      <c r="O67" t="n">
+        <v>16</v>
+      </c>
+      <c r="P67" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q67" t="n">
         <v>15</v>
       </c>
-      <c r="O67" t="n">
-        <v>19</v>
-      </c>
-      <c r="P67" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>19</v>
-      </c>
       <c r="R67" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S67" t="n">
         <v>3</v>
@@ -5589,57 +5628,57 @@
         <v>3</v>
       </c>
       <c r="X67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B68" t="n">
-        <v>44694.4510069444</v>
+        <v>44890.2147222222</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
         <v>25</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G68" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L68" t="n">
         <v>5</v>
       </c>
-      <c r="J68" t="n">
-        <v>3</v>
-      </c>
-      <c r="K68" t="n">
-        <v>8</v>
-      </c>
-      <c r="L68" t="n">
-        <v>9</v>
-      </c>
       <c r="M68" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N68" t="n">
+        <v>22</v>
+      </c>
+      <c r="O68" t="n">
+        <v>21</v>
+      </c>
+      <c r="P68" t="n">
         <v>17</v>
-      </c>
-      <c r="O68" t="n">
-        <v>16</v>
-      </c>
-      <c r="P68" t="n">
-        <v>19</v>
       </c>
       <c r="Q68" t="n">
         <v>16</v>
@@ -5668,58 +5707,58 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B69" t="n">
-        <v>44694.4520601852</v>
+        <v>44890.2147337963</v>
       </c>
       <c r="C69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G69" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H69" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M69" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N69" t="n">
+        <v>18</v>
+      </c>
+      <c r="O69" t="n">
+        <v>22</v>
+      </c>
+      <c r="P69" t="n">
         <v>23</v>
       </c>
-      <c r="O69" t="n">
-        <v>29</v>
-      </c>
-      <c r="P69" t="n">
-        <v>26</v>
-      </c>
       <c r="Q69" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R69" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="S69" t="n">
         <v>3</v>
@@ -5742,182 +5781,182 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B70" t="n">
-        <v>44694.5236689815</v>
+        <v>44890.2147453704</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F70" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G70" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H70" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K70" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N70" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O70" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P70" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q70" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B71" t="n">
-        <v>44694.5237037037</v>
+        <v>44890.2147685185</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
         <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G71" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H71" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M71" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N71" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O71" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P71" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q71" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R71" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="S71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B72" t="n">
-        <v>44694.5237962963</v>
+        <v>44890.2147800926</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
         <v>25</v>
       </c>
       <c r="E72" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G72" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H72" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="K72" t="n">
         <v>4</v>
@@ -5926,170 +5965,170 @@
         <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N72" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O72" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P72" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Q72" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="R72" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B73" t="n">
-        <v>44694.5237962963</v>
+        <v>44890.2149189815</v>
       </c>
       <c r="C73" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-3618</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M73" t="n">
+        <v>25</v>
+      </c>
+      <c r="N73" t="n">
+        <v>21</v>
+      </c>
+      <c r="O73" t="n">
         <v>24</v>
       </c>
-      <c r="D73" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F73" t="s">
-        <v>73</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-3646</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>7</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4</v>
-      </c>
-      <c r="M73" t="n">
-        <v>20</v>
-      </c>
-      <c r="N73" t="n">
+      <c r="P73" t="n">
         <v>22</v>
       </c>
-      <c r="O73" t="n">
-        <v>19</v>
-      </c>
-      <c r="P73" t="n">
-        <v>20</v>
-      </c>
       <c r="Q73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R73" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B74" t="n">
-        <v>44694.5242824074</v>
+        <v>44890.2149305556</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G74" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H74" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K74" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M74" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N74" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O74" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P74" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q74" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R74" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S74" t="n">
         <v>1</v>
@@ -6112,206 +6151,206 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B75" t="n">
-        <v>44694.5242939815</v>
+        <v>44890.2149305556</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D75" t="s">
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F75" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G75" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H75" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="I75" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="J75" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M75" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N75" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O75" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P75" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q75" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="R75" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B76" t="n">
-        <v>44694.5243287037</v>
+        <v>44890.2149421296</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D76" t="s">
         <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G76" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H76" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J76" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L76" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="M76" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N76" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="O76" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P76" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q76" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="R76" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B77" t="n">
-        <v>44694.5246527778</v>
+        <v>44890.2149652778</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D77" t="s">
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G77" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H77" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="I77" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="K77" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N77" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O77" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P77" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q77" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R77" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S77" t="n">
         <v>3</v>
@@ -6334,76 +6373,1852 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>44694</v>
+        <v>44890</v>
       </c>
       <c r="B78" t="n">
-        <v>44694.5250462963</v>
+        <v>44890.2150115741</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D78" t="s">
         <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>-3646</v>
+        <v>-3618</v>
       </c>
       <c r="H78" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="L78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
         <v>18</v>
       </c>
       <c r="N78" t="n">
+        <v>13</v>
+      </c>
+      <c r="O78" t="n">
+        <v>20</v>
+      </c>
+      <c r="P78" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>19</v>
+      </c>
+      <c r="R78" t="n">
+        <v>11</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B79" t="n">
+        <v>44890.2150462963</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>71</v>
+      </c>
+      <c r="F79" t="s">
+        <v>72</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-3618</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M79" t="n">
+        <v>16</v>
+      </c>
+      <c r="N79" t="n">
+        <v>17</v>
+      </c>
+      <c r="O79" t="n">
+        <v>15</v>
+      </c>
+      <c r="P79" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>16</v>
+      </c>
+      <c r="R79" t="n">
+        <v>16</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>1</v>
+      </c>
+      <c r="W79" t="n">
+        <v>3</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B80" t="n">
+        <v>44890.2153472222</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>100</v>
+      </c>
+      <c r="F80" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-3618</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M80" t="n">
+        <v>20</v>
+      </c>
+      <c r="N80" t="n">
+        <v>24</v>
+      </c>
+      <c r="O80" t="n">
+        <v>25</v>
+      </c>
+      <c r="P80" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q80" t="n">
         <v>23</v>
       </c>
-      <c r="O78" t="n">
+      <c r="R80" t="n">
         <v>22</v>
       </c>
-      <c r="P78" t="n">
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3</v>
+      </c>
+      <c r="W80" t="n">
+        <v>3</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B81" t="n">
+        <v>44890.2153819444</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" t="s">
+        <v>81</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-3618</v>
+      </c>
+      <c r="H81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>19</v>
+      </c>
+      <c r="N81" t="n">
+        <v>18</v>
+      </c>
+      <c r="O81" t="n">
+        <v>16</v>
+      </c>
+      <c r="P81" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>18</v>
+      </c>
+      <c r="R81" t="n">
+        <v>14</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B82" t="n">
+        <v>44890.2154861111</v>
+      </c>
+      <c r="C82" t="s">
         <v>24</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-3618</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2</v>
+      </c>
+      <c r="K82" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3</v>
+      </c>
+      <c r="M82" t="n">
+        <v>24</v>
+      </c>
+      <c r="N82" t="n">
+        <v>17</v>
+      </c>
+      <c r="O82" t="n">
+        <v>19</v>
+      </c>
+      <c r="P82" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>20</v>
+      </c>
+      <c r="R82" t="n">
+        <v>21</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>1</v>
+      </c>
+      <c r="W82" t="n">
+        <v>3</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B83" t="n">
+        <v>44890.2156828704</v>
+      </c>
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" t="s">
+        <v>105</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-3618</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M83" t="n">
+        <v>19</v>
+      </c>
+      <c r="N83" t="n">
+        <v>20</v>
+      </c>
+      <c r="O83" t="n">
+        <v>20</v>
+      </c>
+      <c r="P83" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>20</v>
+      </c>
+      <c r="R83" t="n">
+        <v>20</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B84" t="n">
+        <v>44890.2158680556</v>
+      </c>
+      <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>106</v>
+      </c>
+      <c r="F84" t="s">
+        <v>107</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-3618</v>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M84" t="n">
+        <v>23</v>
+      </c>
+      <c r="N84" t="n">
         <v>22</v>
       </c>
-      <c r="R78" t="n">
+      <c r="O84" t="n">
+        <v>14</v>
+      </c>
+      <c r="P84" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>15</v>
+      </c>
+      <c r="R84" t="n">
+        <v>14</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="n">
+        <v>3</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B85" t="n">
+        <v>44890.2275694444</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-3618</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" t="n">
+        <v>21</v>
+      </c>
+      <c r="N85" t="n">
+        <v>21</v>
+      </c>
+      <c r="O85" t="n">
+        <v>21</v>
+      </c>
+      <c r="P85" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>24</v>
+      </c>
+      <c r="R85" t="n">
+        <v>21</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="n">
+        <v>3</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B86" t="n">
+        <v>44890.2291898148</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-3618</v>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>21</v>
+      </c>
+      <c r="N86" t="n">
+        <v>19</v>
+      </c>
+      <c r="O86" t="n">
         <v>20</v>
       </c>
-      <c r="S78" t="n">
-        <v>1</v>
-      </c>
-      <c r="T78" t="n">
-        <v>3</v>
-      </c>
-      <c r="U78" t="n">
-        <v>1</v>
-      </c>
-      <c r="V78" t="n">
-        <v>3</v>
-      </c>
-      <c r="W78" t="n">
-        <v>1</v>
-      </c>
-      <c r="X78" t="n">
-        <v>3</v>
+      <c r="P86" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>20</v>
+      </c>
+      <c r="R86" t="n">
+        <v>21</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="n">
+        <v>3</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B87" t="n">
+        <v>44911.3527777778</v>
+      </c>
+      <c r="C87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="s">
+        <v>67</v>
+      </c>
+      <c r="F87" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>21</v>
+      </c>
+      <c r="N87" t="n">
+        <v>20</v>
+      </c>
+      <c r="O87" t="n">
+        <v>21</v>
+      </c>
+      <c r="P87" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>19</v>
+      </c>
+      <c r="R87" t="n">
+        <v>19</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>1</v>
+      </c>
+      <c r="W87" t="n">
+        <v>3</v>
+      </c>
+      <c r="X87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B88" t="n">
+        <v>44911.3528703704</v>
+      </c>
+      <c r="C88" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>84</v>
+      </c>
+      <c r="F88" t="s">
+        <v>85</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M88" t="n">
+        <v>18</v>
+      </c>
+      <c r="N88" t="n">
+        <v>14</v>
+      </c>
+      <c r="O88" t="n">
+        <v>16</v>
+      </c>
+      <c r="P88" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>12</v>
+      </c>
+      <c r="R88" t="n">
+        <v>8</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="n">
+        <v>3</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B89" t="n">
+        <v>44911.3540162037</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" t="s">
+        <v>94</v>
+      </c>
+      <c r="F89" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4</v>
+      </c>
+      <c r="M89" t="n">
+        <v>23</v>
+      </c>
+      <c r="N89" t="n">
+        <v>22</v>
+      </c>
+      <c r="O89" t="n">
+        <v>23</v>
+      </c>
+      <c r="P89" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>21</v>
+      </c>
+      <c r="R89" t="n">
+        <v>20</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>1</v>
+      </c>
+      <c r="W89" t="n">
+        <v>3</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B90" t="n">
+        <v>44911.3565162037</v>
+      </c>
+      <c r="C90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F90" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>4</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" t="n">
+        <v>19</v>
+      </c>
+      <c r="N90" t="n">
+        <v>19</v>
+      </c>
+      <c r="O90" t="n">
+        <v>19</v>
+      </c>
+      <c r="P90" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>19</v>
+      </c>
+      <c r="R90" t="n">
+        <v>19</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="n">
+        <v>3</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B91" t="n">
+        <v>44911.3565625</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" t="s">
+        <v>76</v>
+      </c>
+      <c r="F91" t="s">
+        <v>77</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3</v>
+      </c>
+      <c r="K91" t="n">
+        <v>4</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M91" t="n">
+        <v>21</v>
+      </c>
+      <c r="N91" t="n">
+        <v>21</v>
+      </c>
+      <c r="O91" t="n">
+        <v>17</v>
+      </c>
+      <c r="P91" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>20</v>
+      </c>
+      <c r="R91" t="n">
+        <v>20</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1</v>
+      </c>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>1</v>
+      </c>
+      <c r="W91" t="n">
+        <v>3</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B92" t="n">
+        <v>44911.3565972222</v>
+      </c>
+      <c r="C92" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" t="s">
+        <v>75</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+      <c r="I92" t="n">
+        <v>5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3</v>
+      </c>
+      <c r="L92" t="n">
+        <v>5</v>
+      </c>
+      <c r="M92" t="n">
+        <v>31</v>
+      </c>
+      <c r="N92" t="n">
+        <v>27</v>
+      </c>
+      <c r="O92" t="n">
+        <v>27</v>
+      </c>
+      <c r="P92" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>27</v>
+      </c>
+      <c r="R92" t="n">
+        <v>27</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="n">
+        <v>3</v>
+      </c>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3</v>
+      </c>
+      <c r="W92" t="n">
+        <v>3</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B93" t="n">
+        <v>44911.3567013889</v>
+      </c>
+      <c r="C93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" t="s">
+        <v>91</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3</v>
+      </c>
+      <c r="M93" t="n">
+        <v>20</v>
+      </c>
+      <c r="N93" t="n">
+        <v>17</v>
+      </c>
+      <c r="O93" t="n">
+        <v>17</v>
+      </c>
+      <c r="P93" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>18</v>
+      </c>
+      <c r="R93" t="n">
+        <v>17</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B94" t="n">
+        <v>44911.356712963</v>
+      </c>
+      <c r="C94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>80</v>
+      </c>
+      <c r="F94" t="s">
+        <v>81</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>25</v>
+      </c>
+      <c r="N94" t="n">
+        <v>23</v>
+      </c>
+      <c r="O94" t="n">
+        <v>23</v>
+      </c>
+      <c r="P94" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>23</v>
+      </c>
+      <c r="R94" t="n">
+        <v>25</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1</v>
+      </c>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>1</v>
+      </c>
+      <c r="W94" t="n">
+        <v>3</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B95" t="n">
+        <v>44911.3567824074</v>
+      </c>
+      <c r="C95" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>20</v>
+      </c>
+      <c r="N95" t="n">
+        <v>22</v>
+      </c>
+      <c r="O95" t="n">
+        <v>20</v>
+      </c>
+      <c r="P95" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>20</v>
+      </c>
+      <c r="R95" t="n">
+        <v>19</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B96" t="n">
+        <v>44911.3568055556</v>
+      </c>
+      <c r="C96" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96" t="s">
+        <v>87</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M96" t="n">
+        <v>21</v>
+      </c>
+      <c r="N96" t="n">
+        <v>17</v>
+      </c>
+      <c r="O96" t="n">
+        <v>19</v>
+      </c>
+      <c r="P96" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>19</v>
+      </c>
+      <c r="R96" t="n">
+        <v>20</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1</v>
+      </c>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>1</v>
+      </c>
+      <c r="W96" t="n">
+        <v>3</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B97" t="n">
+        <v>44911.3570949074</v>
+      </c>
+      <c r="C97" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>104</v>
+      </c>
+      <c r="F97" t="s">
+        <v>105</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M97" t="n">
+        <v>25</v>
+      </c>
+      <c r="N97" t="n">
+        <v>23</v>
+      </c>
+      <c r="O97" t="n">
+        <v>23</v>
+      </c>
+      <c r="P97" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>23</v>
+      </c>
+      <c r="R97" t="n">
+        <v>23</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="n">
+        <v>3</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>3</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1</v>
+      </c>
+      <c r="X97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B98" t="n">
+        <v>44911.3573611111</v>
+      </c>
+      <c r="C98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>102</v>
+      </c>
+      <c r="F98" t="s">
+        <v>103</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K98" t="n">
+        <v>5</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M98" t="n">
+        <v>26</v>
+      </c>
+      <c r="N98" t="n">
+        <v>21</v>
+      </c>
+      <c r="O98" t="n">
+        <v>22</v>
+      </c>
+      <c r="P98" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>23</v>
+      </c>
+      <c r="R98" t="n">
+        <v>28</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1</v>
+      </c>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>1</v>
+      </c>
+      <c r="W98" t="n">
+        <v>3</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B99" t="n">
+        <v>44911.3574652778</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" t="s">
+        <v>66</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3</v>
+      </c>
+      <c r="L99" t="n">
+        <v>3</v>
+      </c>
+      <c r="M99" t="n">
+        <v>20</v>
+      </c>
+      <c r="N99" t="n">
+        <v>22</v>
+      </c>
+      <c r="O99" t="n">
+        <v>21</v>
+      </c>
+      <c r="P99" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>24</v>
+      </c>
+      <c r="R99" t="n">
+        <v>23</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="n">
+        <v>3</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>3</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1</v>
+      </c>
+      <c r="X99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B100" t="n">
+        <v>44911.3574768519</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>71</v>
+      </c>
+      <c r="F100" t="s">
+        <v>72</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M100" t="n">
+        <v>19</v>
+      </c>
+      <c r="N100" t="n">
+        <v>12</v>
+      </c>
+      <c r="O100" t="n">
+        <v>16</v>
+      </c>
+      <c r="P100" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>18</v>
+      </c>
+      <c r="R100" t="n">
+        <v>19</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2</v>
+      </c>
+      <c r="W100" t="n">
+        <v>2</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B101" t="n">
+        <v>44911.3577893519</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s">
+        <v>79</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
+      <c r="K101" t="n">
+        <v>4</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3</v>
+      </c>
+      <c r="M101" t="n">
+        <v>17</v>
+      </c>
+      <c r="N101" t="n">
+        <v>13</v>
+      </c>
+      <c r="O101" t="n">
+        <v>12</v>
+      </c>
+      <c r="P101" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>15</v>
+      </c>
+      <c r="R101" t="n">
+        <v>12</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="n">
+        <v>3</v>
+      </c>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2</v>
+      </c>
+      <c r="W101" t="n">
+        <v>2</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B102" t="n">
+        <v>44911.3578703704</v>
+      </c>
+      <c r="C102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="s">
+        <v>88</v>
+      </c>
+      <c r="F102" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-3615</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K102" t="n">
+        <v>4</v>
+      </c>
+      <c r="L102" t="n">
+        <v>4</v>
+      </c>
+      <c r="M102" t="n">
+        <v>25</v>
+      </c>
+      <c r="N102" t="n">
+        <v>19</v>
+      </c>
+      <c r="O102" t="n">
+        <v>24</v>
+      </c>
+      <c r="P102" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>24</v>
+      </c>
+      <c r="R102" t="n">
+        <v>24</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>1</v>
+      </c>
+      <c r="W102" t="n">
+        <v>3</v>
+      </c>
+      <c r="X102" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
